--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P13_trail7 Features.xlsx
@@ -5547,7 +5547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,29 +5558,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5601,115 +5599,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5726,72 +5714,66 @@
         <v>2.075648516691505e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4180742241095708</v>
+        <v>8.991819944707899e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.523507800997812</v>
+        <v>1.369064242897682e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.991819944707899e-07</v>
+        <v>-0.01069194704746579</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.369064242897682e-06</v>
+        <v>0.246350203533475</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01069194704746579</v>
+        <v>0.06069289863869472</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.246350203533475</v>
+        <v>1.588583429186128</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06069289863869472</v>
+        <v>1.192927255883141</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.617973895314158</v>
+        <v>25.59079661573313</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.192927255883141</v>
+        <v>3.297875256180724e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>25.59079661573313</v>
+        <v>901726207.2991769</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.297875256180724e-15</v>
+        <v>1.185703254059699e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>901726207.2991769</v>
+        <v>2681.535853897693</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.185703254059699e-07</v>
+        <v>2.028744705049336e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2681.535853897693</v>
+        <v>8.460363025772843</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.028744705049336e-05</v>
+        <v>1.232679551349852</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.460363025772843</v>
+        <v>0.001452129661527892</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.232679551349852</v>
+        <v>7.777785521493145</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.001452129661527892</v>
+        <v>0.945145904440412</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.777785521493145</v>
+        <v>0.7889954867102446</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.945145904440412</v>
+        <v>15</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7889954867102446</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>8.583944667543332</v>
       </c>
     </row>
@@ -5806,72 +5788,66 @@
         <v>2.081960204336367e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4274052268736158</v>
+        <v>8.295031903366456e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.5151852819553975</v>
+        <v>1.369383300839934e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.295031903366456e-07</v>
+        <v>0.01262616571552551</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.369383300839934e-06</v>
+        <v>0.203980712091242</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01262616571552551</v>
+        <v>0.04170523816181031</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.203980712091242</v>
+        <v>1.575372936948607</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04170523816181031</v>
+        <v>1.195399999030482</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.598942259758678</v>
+        <v>23.52129112871501</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.195399999030482</v>
+        <v>3.90372773354356e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>23.52129112871501</v>
+        <v>761827464.6337013</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.90372773354356e-15</v>
+        <v>1.403406459548111e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>761827464.6337013</v>
+        <v>2265.649740935678</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.403406459548111e-07</v>
+        <v>1.977219092120096e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2265.649740935678</v>
+        <v>9.996862279785605</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1.977219092120096e-05</v>
+        <v>1.302753984942247</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.996862279785605</v>
+        <v>0.001975978494720286</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.302753984942247</v>
+        <v>7.774647653573605</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.001975978494720286</v>
+        <v>0.9421305689278333</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.774647653573605</v>
+        <v>0.83627036125944</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9421305689278333</v>
+        <v>15</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.83627036125944</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>8.637623787255748</v>
       </c>
     </row>
@@ -5886,72 +5862,66 @@
         <v>2.180902292622356e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6019035123193436</v>
+        <v>8.873505727280568e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.10564904739861</v>
+        <v>1.373980146149175e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.873505727280568e-07</v>
+        <v>0.02931929223631591</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.373980146149175e-06</v>
+        <v>0.1685057153345036</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02931929223631591</v>
+        <v>0.02922157706976825</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1685057153345036</v>
+        <v>1.566718687821443</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02922157706976825</v>
+        <v>1.198811592708757</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.585256955445237</v>
+        <v>21.80783419788071</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.198811592708757</v>
+        <v>4.541264122671526e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>21.80783419788071</v>
+        <v>654951165.9357606</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.541264122671526e-15</v>
+        <v>1.632384281177666e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>654951165.9357606</v>
+        <v>1948.025334476101</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.632384281177666e-07</v>
+        <v>2.880196784749605e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1948.025334476101</v>
+        <v>9.728196539090863</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.880196784749605e-05</v>
+        <v>1.450835405674971</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.728196539090863</v>
+        <v>0.002725755100384882</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.450835405674971</v>
+        <v>7.340423764216796</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.002725755100384882</v>
+        <v>0.939703545133029</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.340423764216796</v>
+        <v>0.8956913044510291</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.939703545133029</v>
+        <v>15</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8956913044510291</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>7.393080822069851</v>
       </c>
     </row>
@@ -5966,72 +5936,66 @@
         <v>2.325021305154986e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7558683388047344</v>
+        <v>9.369197370981834e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.163419616848258</v>
+        <v>1.381895253795617e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.369197370981834e-07</v>
+        <v>0.03995239898855036</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.381895253795617e-06</v>
+        <v>0.1418182230165844</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03995239898855036</v>
+        <v>0.02169287909116496</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1418182230165844</v>
+        <v>1.562591793861716</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02169287909116496</v>
+        <v>1.205035175733757</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.578881360666878</v>
+        <v>19.01364661543479</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.205035175733757</v>
+        <v>5.974079516283838e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>19.01364661543479</v>
+        <v>497941355.1067405</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.974079516283838e-15</v>
+        <v>2.147088283804795e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>497941355.1067405</v>
+        <v>1481.246689044117</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.147088283804795e-07</v>
+        <v>3.518844296063904e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1481.246689044117</v>
+        <v>8.400418829151748</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3.518844296063904e-05</v>
+        <v>1.348245774230754</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.400418829151748</v>
+        <v>0.002483144138963409</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.348245774230754</v>
+        <v>6.994982958379189</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002483144138963409</v>
+        <v>0.9399154895597618</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.994982958379189</v>
+        <v>0.8948227168746878</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9399154895597618</v>
+        <v>15</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8948227168746878</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.559788537400415</v>
       </c>
     </row>
@@ -6046,72 +6010,66 @@
         <v>2.486041785782762e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8482587606705001</v>
+        <v>9.783843856707243e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.2571540497749498</v>
+        <v>1.392345032140048e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.783843856707243e-07</v>
+        <v>0.04631352499183335</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.392345032140048e-06</v>
+        <v>0.1224917899035625</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04631352499183335</v>
+        <v>0.01714124192810301</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1224917899035625</v>
+        <v>1.551468076324869</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01714124192810301</v>
+        <v>1.208762790759923</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.560802208700137</v>
+        <v>18.44762977188357</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.208762790759923</v>
+        <v>6.346301291804143e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>18.44762977188357</v>
+        <v>468779813.8485786</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.346301291804143e-15</v>
+        <v>2.28060375465334e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>468779813.8485786</v>
+        <v>1394.628355265081</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.28060375465334e-07</v>
+        <v>3.116952950432121e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1394.628355265081</v>
+        <v>8.835448060135866</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.116952950432121e-05</v>
+        <v>1.252476779754814</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.835448060135866</v>
+        <v>0.002433253760023914</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.252476779754814</v>
+        <v>7.214963905551822</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.002433253760023914</v>
+        <v>0.9379949677513933</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.214963905551822</v>
+        <v>0.8313410241514364</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9379949677513933</v>
+        <v>15</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8313410241514364</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>7.118236079534458</v>
       </c>
     </row>
@@ -6126,72 +6084,66 @@
         <v>2.650721362741579e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8926611847322907</v>
+        <v>1.018090957034426e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.2462273680723448</v>
+        <v>1.404791299744309e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.018090957034426e-06</v>
+        <v>0.05023980743602102</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.404791299744309e-06</v>
+        <v>0.1086875622277863</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.05023980743602102</v>
+        <v>0.01433268443950194</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1086875622277863</v>
+        <v>1.546510295980905</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01433268443950194</v>
+        <v>1.209836233114638</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.553801443467498</v>
+        <v>18.4030400183344</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.209836233114638</v>
+        <v>6.377092164866921e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>18.4030400183344</v>
+        <v>466552741.4176154</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.377092164866921e-15</v>
+        <v>2.291416002669406e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>466552741.4176154</v>
+        <v>1388.110965424603</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.291416002669406e-07</v>
+        <v>2.456645348530069e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1388.110965424603</v>
+        <v>9.455932489599091</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.456645348530069e-05</v>
+        <v>1.235315869863576</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.455932489599091</v>
+        <v>0.002196601067316457</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.235315869863576</v>
+        <v>7.498829924545562</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.002196601067316457</v>
+        <v>0.9363980923454653</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.498829924545562</v>
+        <v>0.9022382677910263</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9363980923454653</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9022382677910263</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>7.801160942638504</v>
       </c>
     </row>
@@ -6206,72 +6158,66 @@
         <v>2.81367465610589e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.907413937974298</v>
+        <v>1.053892782691966e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1836352381738933</v>
+        <v>1.418869848288256e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.053892782691966e-06</v>
+        <v>0.05248685550947053</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.418869848288256e-06</v>
+        <v>0.0984001342264627</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.05248685550947053</v>
+        <v>0.01243541017387681</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.0984001342264627</v>
+        <v>1.530538912950999</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01243541017387681</v>
+        <v>1.210128889148191</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.534055877798969</v>
+        <v>17.53583618294098</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.210128889148191</v>
+        <v>7.023423805425472e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>17.53583618294098</v>
+        <v>423652057.5897955</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.023423805425472e-15</v>
+        <v>2.523342660485072e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>423652057.5897955</v>
+        <v>1260.571590865671</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.523342660485072e-07</v>
+        <v>2.280388713419544e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1260.571590865671</v>
+        <v>9.184897534549426</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.280388713419544e-05</v>
+        <v>1.370141348271884</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.184897534549426</v>
+        <v>0.00192378934176712</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.370141348271884</v>
+        <v>7.521809300326495</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.00192378934176712</v>
+        <v>0.933647793713949</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.521809300326495</v>
+        <v>0.9553429946074535</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.933647793713949</v>
+        <v>17</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9553429946074535</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>7.727287841141433</v>
       </c>
     </row>
@@ -6286,72 +6232,66 @@
         <v>2.970371651844553e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9017299849428763</v>
+        <v>1.083072273943558e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.08746068284888331</v>
+        <v>1.434222675491383e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.083072273943558e-06</v>
+        <v>0.0535214106992327</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.434222675491383e-06</v>
+        <v>0.09040169279307543</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0535214106992327</v>
+        <v>0.01103591966840737</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.09040169279307543</v>
+        <v>1.51199463119353</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01103591966840737</v>
+        <v>1.209925568196821</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.511688114079782</v>
+        <v>17.8044177661928</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.209925568196821</v>
+        <v>6.813123831596594e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>17.8044177661928</v>
+        <v>436778295.9140166</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.813123831596594e-15</v>
+        <v>2.447324335913031e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>436778295.9140166</v>
+        <v>1299.775605159201</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.447324335913031e-07</v>
+        <v>3.07613548827219e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1299.775605159201</v>
+        <v>7.952909998003605</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3.07613548827219e-05</v>
+        <v>1.742639769259319</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.952909998003605</v>
+        <v>0.001945618088617723</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.742639769259319</v>
+        <v>6.955017513967627</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.001945618088617723</v>
+        <v>0.9274209081969566</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.955017513967627</v>
+        <v>0.8653240671119645</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9274209081969566</v>
+        <v>18</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.8653240671119645</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>6.210589888209501</v>
       </c>
     </row>
@@ -6366,72 +6306,66 @@
         <v>3.120077819043659e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.8839047545053382</v>
+        <v>1.116224952349016e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.02318456763013055</v>
+        <v>1.450641531995708e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.116224952349016e-06</v>
+        <v>0.05428691586086168</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.450641531995708e-06</v>
+        <v>0.08425332112764877</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.05428691586086168</v>
+        <v>0.01004468165057528</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08425332112764877</v>
+        <v>1.507406816468684</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01004468165057528</v>
+        <v>1.209313500327097</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.504013568859233</v>
+        <v>18.08488420720284</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.209313500327097</v>
+        <v>6.603442033195214e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>18.08488420720284</v>
+        <v>450675608.4716459</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.603442033195214e-15</v>
+        <v>2.371866330374357e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>450675608.4716459</v>
+        <v>1341.215233083746</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.371866330374357e-07</v>
+        <v>6.159193441441691e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1341.215233083746</v>
+        <v>7.57404270801726</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>6.159193441441691e-05</v>
+        <v>1.985809562921477</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.57404270801726</v>
+        <v>0.003533290481906591</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.985809562921477</v>
+        <v>5.23800424134549</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.003533290481906591</v>
+        <v>0.9272810722119027</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>5.23800424134549</v>
+        <v>0.9750698401397097</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9272810722119027</v>
+        <v>18</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9750698401397097</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>2.648519250448504</v>
       </c>
     </row>
@@ -6446,72 +6380,66 @@
         <v>3.26642335450413e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8625339602888837</v>
+        <v>1.161029464646948e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.1269834634436826</v>
+        <v>1.468127772448691e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.161029464646948e-06</v>
+        <v>0.05528211956094448</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.468127772448691e-06</v>
+        <v>0.07967724709241504</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.05528211956094448</v>
+        <v>0.009403055092205008</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.07967724709241504</v>
+        <v>1.510001098816943</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.009403055092205008</v>
+        <v>1.207395395169121</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.503993980223788</v>
+        <v>18.04816160711509</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.207395395169121</v>
+        <v>6.819053684918949e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>18.04816160711509</v>
+        <v>436451372.1779252</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.819053684918949e-15</v>
+        <v>2.449193168018337e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>436451372.1779252</v>
+        <v>1298.96017451149</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.449193168018337e-07</v>
+        <v>0.0001048270712729525</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1298.96017451149</v>
+        <v>10.26496326115925</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001048270712729525</v>
+        <v>1.639341929899416</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.26496326115925</v>
+        <v>0.01104557302061268</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.639341929899416</v>
+        <v>3.747429949840629</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01104557302061268</v>
+        <v>0.9260191705743172</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.747429949840629</v>
+        <v>0.9550219052415936</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9260191705743172</v>
+        <v>18</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9550219052415936</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.4304351319329402</v>
       </c>
     </row>
@@ -6526,72 +6454,66 @@
         <v>3.415060096019081e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.844703208210504</v>
+        <v>1.220906205359393e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2073402365952126</v>
+        <v>1.486817399363751e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.220906205359393e-06</v>
+        <v>0.05664599998857103</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.486817399363751e-06</v>
+        <v>0.07659506988660233</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.05664599998857103</v>
+        <v>0.009073506140406669</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07659506988660233</v>
+        <v>1.575553521518569</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.009073506140406669</v>
+        <v>1.216028489328578</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.617819527004354</v>
+        <v>18.19747502102825</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.216028489328578</v>
+        <v>6.707609758904172e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>18.19747502102825</v>
+        <v>444127648.6933991</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.707609758904172e-15</v>
+        <v>2.412765315109301e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>444127648.6933991</v>
+        <v>1323.071787974334</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.412765315109301e-07</v>
+        <v>0.0001097973611637594</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1323.071787974334</v>
+        <v>11.47395342697695</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001097973611637594</v>
+        <v>1.322133441059157</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.47395342697695</v>
+        <v>0.01445499906840676</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.322133441059157</v>
+        <v>3.423448991569589</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01445499906840676</v>
+        <v>0.9275084414086736</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.423448991569589</v>
+        <v>0.9223515351509494</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9275084414086736</v>
+        <v>18</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9223515351509494</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2284956061141226</v>
       </c>
     </row>
@@ -6606,72 +6528,66 @@
         <v>3.570165289966945e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8337975659071486</v>
+        <v>1.287008862673282e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.2585977525778156</v>
+        <v>1.506830654920182e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.287008862673282e-06</v>
+        <v>0.05790900130382021</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.506830654920182e-06</v>
+        <v>0.07414485294370857</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05790900130382021</v>
+        <v>0.008849105713220468</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07414485294370857</v>
+        <v>1.416217460459238</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008849105713220468</v>
+        <v>1.543821967534409</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.333730318286242</v>
+        <v>4.040621226981821</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.543821967534409</v>
+        <v>5.558109335119551e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.040621226981821</v>
+        <v>30968424.71425235</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.558109335119551e-15</v>
+        <v>3.176017776338977e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>30968424.71425235</v>
+        <v>5.33046768126817</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.176017776338977e-06</v>
+        <v>0.0001165972731461771</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5.33046768126817</v>
+        <v>10.06680532381015</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001165972731461771</v>
+        <v>1.117221175023725</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.06680532381015</v>
+        <v>0.01181603405432646</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.117221175023725</v>
+        <v>3.167931517612871</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01181603405432646</v>
+        <v>0.9240051090477261</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.167931517612871</v>
+        <v>1.860317867782942</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9240051090477261</v>
+        <v>16</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.860317867782942</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2082742611791991</v>
       </c>
     </row>
@@ -6686,72 +6602,66 @@
         <v>3.731189496954496e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.8276888446241116</v>
+        <v>1.348237781900961e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.2915081572448908</v>
+        <v>1.528122878815991e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.348237781900961e-06</v>
+        <v>0.05863431300388195</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.528122878815991e-06</v>
+        <v>0.07141499496401899</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05863431300388195</v>
+        <v>0.008537046321352946</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07141499496401899</v>
+        <v>1.410705826413898</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008537046321352946</v>
+        <v>1.505181903230915</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.329190917750343</v>
+        <v>4.109816305731734</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.505181903230915</v>
+        <v>6.218828724600839e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.109816305731734</v>
+        <v>28604090.85670152</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.218828724600839e-15</v>
+        <v>3.395283957757154e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>28604090.85670152</v>
+        <v>5.088208434933036</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.395283957757154e-06</v>
+        <v>0.0001371105294145222</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.088208434933036</v>
+        <v>8.784895676929697</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001371105294145222</v>
+        <v>1.258546597721685</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.784895676929697</v>
+        <v>0.01058142175184161</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.258546597721685</v>
+        <v>3.064576335850675</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01058142175184161</v>
+        <v>0.9235479801999408</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.064576335850675</v>
+        <v>1.8555806971168</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9235479801999408</v>
+        <v>13</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.8555806971168</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1826057799439536</v>
       </c>
     </row>
@@ -6766,72 +6676,66 @@
         <v>3.893253691451711e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8207142264222264</v>
+        <v>1.39296659699414e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.3265508128007921</v>
+        <v>1.550483955896969e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.39296659699414e-06</v>
+        <v>0.0584868022063323</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.550483955896969e-06</v>
+        <v>0.0680962526650853</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.0584868022063323</v>
+        <v>0.008057792206737545</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0680962526650853</v>
+        <v>1.392300649785606</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008057792206737545</v>
+        <v>1.394289028364099</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.313976779152716</v>
+        <v>4.83434912713054</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.394289028364099</v>
+        <v>9.517714565890542e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.83434912713054</v>
+        <v>20907955.14334984</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.517714565890542e-15</v>
+        <v>4.507740661613392e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>20907955.14334984</v>
+        <v>4.16059837980871</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.507740661613392e-06</v>
+        <v>0.0001585336816985704</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>4.16059837980871</v>
+        <v>8.118474018644287</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001585336816985704</v>
+        <v>1.537501083660933</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.118474018644287</v>
+        <v>0.01044889478000418</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.537501083660933</v>
+        <v>3.012454510885207</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01044889478000418</v>
+        <v>0.9206849640210062</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.012454510885207</v>
+        <v>1.836901058494343</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9206849640210062</v>
+        <v>13</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.836901058494343</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1573742585660303</v>
       </c>
     </row>
@@ -6846,72 +6750,66 @@
         <v>4.047232081051366e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.8055100865106104</v>
+        <v>1.412980781934196e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.3864092453689985</v>
+        <v>1.573514336343214e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.412980781934196e-06</v>
+        <v>0.05738580816335539</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.573514336343214e-06</v>
+        <v>0.06482035001236171</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.05738580816335539</v>
+        <v>0.007495169153046839</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.06482035001236171</v>
+        <v>1.377342136585018</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.007495169153046839</v>
+        <v>1.446613584545475</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.30153740957325</v>
+        <v>4.368386016256232</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.446613584545475</v>
+        <v>1.165646011636581e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.368386016256232</v>
+        <v>17655411.47699308</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.165646011636581e-14</v>
+        <v>5.262890000800195e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>17655411.47699308</v>
+        <v>3.633476614849955</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.262890000800195e-06</v>
+        <v>0.00017469448523037</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>3.633476614849955</v>
+        <v>9.240827500216849</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.00017469448523037</v>
+        <v>1.433290201215268</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.240827500216849</v>
+        <v>0.01491766746553475</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.433290201215268</v>
+        <v>2.891262126226746</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01491766746553475</v>
+        <v>0.9220977394205163</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.891262126226746</v>
+        <v>1.832180961964128</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9220977394205163</v>
+        <v>12</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.832180961964128</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1449186497013441</v>
       </c>
     </row>
@@ -6926,72 +6824,66 @@
         <v>4.186305022880459e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.7796033739064985</v>
+        <v>1.420704634569553e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.4743674261962103</v>
+        <v>1.596866731089646e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.420704634569553e-06</v>
+        <v>0.05602810246267764</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.596866731089646e-06</v>
+        <v>0.06219573886755256</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.05602810246267764</v>
+        <v>0.007007844707137552</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.06219573886755256</v>
+        <v>1.362375526188518</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.007007844707137552</v>
+        <v>1.434420451800205</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.284482284320324</v>
+        <v>4.373493897601122</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.434420451800205</v>
+        <v>1.162924844178056e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.373493897601122</v>
+        <v>17588626.49287713</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.162924844178056e-14</v>
+        <v>5.230270030369295e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>17588626.49287713</v>
+        <v>3.597621761679216</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.230270030369295e-06</v>
+        <v>0.0001726744347949055</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>3.597621761679216</v>
+        <v>11.1203606453117</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001726744347949055</v>
+        <v>1.1379407837805</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.1203606453117</v>
+        <v>0.02135333863113404</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.1379407837805</v>
+        <v>2.716472662137609</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02135333863113404</v>
+        <v>0.9205086824531867</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.716472662137609</v>
+        <v>1.876537903935395</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9205086824531867</v>
+        <v>4</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.876537903935395</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1505052650341756</v>
       </c>
     </row>
@@ -7368,7 +7260,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.457084594002381</v>
+        <v>1.460044563711501</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.149042897877287</v>
@@ -7457,7 +7349,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.533005785118243</v>
+        <v>1.523790758215263</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.000442745325621</v>
@@ -7546,7 +7438,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.547084193458367</v>
+        <v>1.541180180550106</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.158084761572474</v>
@@ -7635,7 +7527,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.514297426765539</v>
+        <v>1.504841944765576</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.180307867307401</v>
@@ -7724,7 +7616,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.511764580157877</v>
+        <v>1.50764177309863</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.032263352357994</v>
@@ -7813,7 +7705,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.523961638264227</v>
+        <v>1.522945051101232</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.12770267828824</v>
@@ -7902,7 +7794,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.515985098407987</v>
+        <v>1.513356288789944</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.112973544854917</v>
@@ -7991,7 +7883,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.516895027645027</v>
+        <v>1.513261524738733</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.144276021992137</v>
@@ -8080,7 +7972,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519218013269813</v>
+        <v>1.514740758223039</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.095349696924961</v>
@@ -8169,7 +8061,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.521716413846621</v>
+        <v>1.514845347215827</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.129156578547255</v>
@@ -8258,7 +8150,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.477170883541967</v>
+        <v>1.47522744988431</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.107808271475547</v>
@@ -8347,7 +8239,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.506736516026518</v>
+        <v>1.5093922242108</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.02681734336847</v>
@@ -8436,7 +8328,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.507522448846379</v>
+        <v>1.510045543272702</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.122913656755855</v>
@@ -8525,7 +8417,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.517218723946721</v>
+        <v>1.520030646084368</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.128261503717617</v>
@@ -8614,7 +8506,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.537490625094429</v>
+        <v>1.537499049889038</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.042848685419259</v>
@@ -8703,7 +8595,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.547680026470409</v>
+        <v>1.550227747251832</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.127881649086449</v>
@@ -8792,7 +8684,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.541891840853564</v>
+        <v>1.544923159724778</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.134019703079601</v>
@@ -8881,7 +8773,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.574773772941119</v>
+        <v>1.577838410214093</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.248046233981079</v>
@@ -8970,7 +8862,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.627990557805626</v>
+        <v>1.62914852506526</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.045861152568503</v>
@@ -9059,7 +8951,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.622751479972399</v>
+        <v>1.624202484040032</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.024387669617462</v>
@@ -9148,7 +9040,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619766875926251</v>
+        <v>1.624491163863475</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.053930274548922</v>
@@ -9237,7 +9129,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.6492227763274</v>
+        <v>1.654724792273921</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.027555963544133</v>
@@ -9326,7 +9218,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.649425220129211</v>
+        <v>1.654285801290927</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.029931040849791</v>
@@ -9415,7 +9307,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.655715307271003</v>
+        <v>1.651246633768457</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.039479718664317</v>
@@ -9504,7 +9396,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.609254708778826</v>
+        <v>1.613946431698814</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.072328448818759</v>
@@ -9593,7 +9485,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.693192433610674</v>
+        <v>1.686154046211727</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.221096490014806</v>
@@ -9682,7 +9574,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.706216396921224</v>
+        <v>1.690354052054579</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.147812509099778</v>
@@ -9771,7 +9663,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.703046040912676</v>
+        <v>1.687972493931951</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.156473247761951</v>
@@ -9860,7 +9752,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.646170066179821</v>
+        <v>1.643273304923523</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.138990024382384</v>
@@ -9949,7 +9841,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.415748535169426</v>
+        <v>1.420445989538044</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.619944650433994</v>
@@ -10038,7 +9930,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.410177523819286</v>
+        <v>1.418329409512025</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.619174424707391</v>
@@ -10127,7 +10019,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.419376349001097</v>
+        <v>1.427972701618821</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.616940623254402</v>
@@ -10216,7 +10108,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.411030366422512</v>
+        <v>1.416875473020547</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.61531499012443</v>
@@ -10305,7 +10197,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.412590138714858</v>
+        <v>1.417819231382992</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.612688793254766</v>
@@ -10394,7 +10286,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.393172105449821</v>
+        <v>1.398454802625465</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.617950717819464</v>
@@ -10483,7 +10375,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.389696019259109</v>
+        <v>1.395634335855221</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.620602248440173</v>
@@ -10572,7 +10464,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.390110115192822</v>
+        <v>1.395695639310969</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.617370551784834</v>
@@ -10661,7 +10553,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.385587859666631</v>
+        <v>1.39257184605149</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.614326412454529</v>
@@ -10750,7 +10642,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.403396628442954</v>
+        <v>1.409965598199879</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.624534617151971</v>
@@ -10839,7 +10731,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.402284014736382</v>
+        <v>1.408290053397</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.609325150427607</v>
@@ -10928,7 +10820,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.407064426040977</v>
+        <v>1.413841914158363</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.612706890180329</v>
@@ -11017,7 +10909,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.407755045419745</v>
+        <v>1.415801585583416</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.616012959550261</v>
@@ -11106,7 +10998,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.407113105755509</v>
+        <v>1.41510101873309</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.623201489287545</v>
@@ -11195,7 +11087,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.449073181707027</v>
+        <v>1.450869149432882</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.578017749600133</v>
@@ -11284,7 +11176,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.720975284852687</v>
+        <v>1.701761539802684</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.123899944992264</v>
@@ -11373,7 +11265,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.734047018567292</v>
+        <v>1.709005162306887</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.129785310452291</v>
@@ -11462,7 +11354,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.729243742001033</v>
+        <v>1.702048569812553</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.104885259565959</v>
@@ -11551,7 +11443,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.72848328822541</v>
+        <v>1.701397675844408</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.126536342948086</v>
@@ -11640,7 +11532,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.737512436907398</v>
+        <v>1.703242425993144</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.111511988821121</v>
@@ -11729,7 +11621,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.811279769181283</v>
+        <v>1.764449875393624</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.468168701499668</v>
@@ -11818,7 +11710,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.813746491554339</v>
+        <v>1.767072281474621</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.242097049937705</v>
@@ -11907,7 +11799,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.81501654052016</v>
+        <v>1.762528600802339</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.231351036938893</v>
@@ -11996,7 +11888,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.825549158964471</v>
+        <v>1.767660752526562</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.103453615432224</v>
@@ -12085,7 +11977,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.741089025499281</v>
+        <v>1.706173384121662</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.084442810588821</v>
@@ -12174,7 +12066,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.659565514205561</v>
+        <v>1.643080250911554</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.079140080374195</v>
@@ -12263,7 +12155,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.635588767674534</v>
+        <v>1.60246074203584</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.168734925932528</v>
@@ -12352,7 +12244,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.577567619374746</v>
+        <v>1.572508496445744</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.213739497904753</v>
@@ -12441,7 +12333,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.57508115125337</v>
+        <v>1.574239503489931</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.247630205256947</v>
@@ -12530,7 +12422,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.560867124476153</v>
+        <v>1.562205891973634</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.212820729146379</v>
@@ -12619,7 +12511,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.570178437191643</v>
+        <v>1.572950727572005</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.225031112735734</v>
@@ -12708,7 +12600,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.500396780572171</v>
+        <v>1.492749292975095</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.134671404016358</v>
@@ -12994,7 +12886,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.475525062691392</v>
+        <v>1.487223555156866</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.098990149416641</v>
@@ -13083,7 +12975,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.546951110267147</v>
+        <v>1.550924806228508</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.125801539969481</v>
@@ -13172,7 +13064,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568550724791042</v>
+        <v>1.573699930313683</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.340694521915333</v>
@@ -13261,7 +13153,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.533010395867579</v>
+        <v>1.527008738828717</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.414343720075315</v>
@@ -13350,7 +13242,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.508532430855892</v>
+        <v>1.514718041979038</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.062579256099272</v>
@@ -13439,7 +13331,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.515259196397306</v>
+        <v>1.521850015738211</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.050140593128523</v>
@@ -13528,7 +13420,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.477979505876299</v>
+        <v>1.48006535303768</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.137881171100204</v>
@@ -13617,7 +13509,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.466612531777405</v>
+        <v>1.471892752774463</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.209420275624591</v>
@@ -13706,7 +13598,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.463705218949414</v>
+        <v>1.467137198418751</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.050303326549381</v>
@@ -13795,7 +13687,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.463891874823814</v>
+        <v>1.461922241205007</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.069134464569259</v>
@@ -13884,7 +13776,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.420924131889382</v>
+        <v>1.41591697650521</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.087811106461885</v>
@@ -13973,7 +13865,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.436346808742823</v>
+        <v>1.434075937928483</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.021552629109665</v>
@@ -14062,7 +13954,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.43328271702273</v>
+        <v>1.429665041613709</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.090952878929866</v>
@@ -14151,7 +14043,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.426198431644321</v>
+        <v>1.424701008451522</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.089789913022623</v>
@@ -14240,7 +14132,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.43810743937177</v>
+        <v>1.439688602155195</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.088613736790894</v>
@@ -14329,7 +14221,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.412012326111276</v>
+        <v>1.419794702447195</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.147835258485097</v>
@@ -14418,7 +14310,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.411707282035604</v>
+        <v>1.421246799187659</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.154500000251768</v>
@@ -14507,7 +14399,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.420825307123418</v>
+        <v>1.431730345673649</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.109112912190827</v>
@@ -14596,7 +14488,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.454986014429883</v>
+        <v>1.467368637815925</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.01615076937352</v>
@@ -14685,7 +14577,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.459552381587268</v>
+        <v>1.471173815998381</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.12031919095327</v>
@@ -14774,7 +14666,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.463150252262085</v>
+        <v>1.479061644299415</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.164029614569081</v>
@@ -14863,7 +14755,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.489699923748916</v>
+        <v>1.507103827673073</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.122702745594537</v>
@@ -14952,7 +14844,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.50136206126455</v>
+        <v>1.516003425241106</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.17502894746611</v>
@@ -15041,7 +14933,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.51114218535517</v>
+        <v>1.520833453693569</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.188213184759876</v>
@@ -15130,7 +15022,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.492212053988489</v>
+        <v>1.509462434901002</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.140729777441892</v>
@@ -15219,7 +15111,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.541501379422152</v>
+        <v>1.561131735726008</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.430811612506943</v>
@@ -15308,7 +15200,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.539553406058326</v>
+        <v>1.557607488915551</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.373759616760918</v>
@@ -15397,7 +15289,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.546038166443887</v>
+        <v>1.561691689021631</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.355235001520041</v>
@@ -15486,7 +15378,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.564603078970064</v>
+        <v>1.584202702703848</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.391402953181267</v>
@@ -15575,7 +15467,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548185416092435</v>
+        <v>1.565955038505253</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.474743701822233</v>
@@ -15664,7 +15556,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.592925199011092</v>
+        <v>1.606332198508535</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.412116735618479</v>
@@ -15753,7 +15645,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.604361008956313</v>
+        <v>1.609219911514815</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.383407975677104</v>
@@ -15842,7 +15734,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.597233307039546</v>
+        <v>1.602349841812555</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.299931148227372</v>
@@ -15931,7 +15823,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600795745704926</v>
+        <v>1.603599418806092</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.429557090977709</v>
@@ -16020,7 +15912,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.581903799508977</v>
+        <v>1.583347727983693</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.247575779066042</v>
@@ -16109,7 +16001,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.580935682201234</v>
+        <v>1.575884967067885</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.306025297308838</v>
@@ -16198,7 +16090,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573090774428461</v>
+        <v>1.573184375703552</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.287344705159477</v>
@@ -16287,7 +16179,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.556427443698406</v>
+        <v>1.56304634889589</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.308582209782055</v>
@@ -16376,7 +16268,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.578770294161475</v>
+        <v>1.584105860777978</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.136604783599046</v>
@@ -16465,7 +16357,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.576026018606361</v>
+        <v>1.579163090904865</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.433027693870415</v>
@@ -16554,7 +16446,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.567018699596888</v>
+        <v>1.575267910724242</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.464620400651133</v>
@@ -16643,7 +16535,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.563594765455047</v>
+        <v>1.574092168592291</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.473596421966427</v>
@@ -16732,7 +16624,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.567385031372516</v>
+        <v>1.579677245359772</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.355459892686064</v>
@@ -16821,7 +16713,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.552331929974436</v>
+        <v>1.560757316266066</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.438501133455961</v>
@@ -16910,7 +16802,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598702326921182</v>
+        <v>1.600313754200229</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.416163458227798</v>
@@ -16999,7 +16891,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.598565301447679</v>
+        <v>1.598099426520146</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.440827246609641</v>
@@ -17088,7 +16980,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.610705383786138</v>
+        <v>1.607038489122162</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.387410486494455</v>
@@ -17177,7 +17069,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.605314567986346</v>
+        <v>1.602230819085594</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.333911113083294</v>
@@ -17266,7 +17158,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.608582669468102</v>
+        <v>1.605165153095063</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.177434239037215</v>
@@ -17355,7 +17247,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.644130095669821</v>
+        <v>1.644186383431142</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.852752352203443</v>
@@ -17444,7 +17336,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.656029242895249</v>
+        <v>1.650419371349709</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.495651753462152</v>
@@ -17533,7 +17425,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.656616956330369</v>
+        <v>1.648633468110864</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.616955730958376</v>
@@ -17622,7 +17514,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.669887363372652</v>
+        <v>1.648284761382722</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.217242288834713</v>
@@ -17711,7 +17603,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.614560879457181</v>
+        <v>1.601066027241508</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.174184085388118</v>
@@ -17800,7 +17692,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.589166500046927</v>
+        <v>1.575914140433609</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.296041549703028</v>
@@ -17889,7 +17781,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.50682951867887</v>
+        <v>1.508610671978164</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.740809700962514</v>
@@ -17978,7 +17870,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.311046594737238</v>
+        <v>1.290235515961193</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.576023904813797</v>
@@ -18067,7 +17959,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.286125440655304</v>
+        <v>1.273170849190008</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.590431015340067</v>
@@ -18156,7 +18048,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.292816890488999</v>
+        <v>1.278686199545161</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.593890138225364</v>
@@ -18245,7 +18137,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.304781613246312</v>
+        <v>1.296161648477663</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.61373131086742</v>
@@ -18334,7 +18226,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.290689646062019</v>
+        <v>1.275090471576444</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.64353516970876</v>
@@ -18620,7 +18512,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.572807557297275</v>
+        <v>1.558171902585453</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.838845345695514</v>
@@ -18709,7 +18601,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.585906726872478</v>
+        <v>1.565854749296918</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.758858025797277</v>
@@ -18798,7 +18690,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.593352647183744</v>
+        <v>1.570688174899637</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.800118134566712</v>
@@ -18887,7 +18779,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.593059350307118</v>
+        <v>1.568431335227943</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.688466462462647</v>
@@ -18976,7 +18868,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.579684908494007</v>
+        <v>1.5652395906022</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.679970023168763</v>
@@ -19065,7 +18957,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.574427538937636</v>
+        <v>1.559855377995823</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.604247960809463</v>
@@ -19154,7 +19046,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.578689834115999</v>
+        <v>1.55936354520053</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.092601503358609</v>
@@ -19243,7 +19135,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.580276699306779</v>
+        <v>1.559850375314848</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.8497259039999</v>
@@ -19332,7 +19224,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.576345168613472</v>
+        <v>1.557435044445273</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.128262233778281</v>
@@ -19421,7 +19313,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.569882439119689</v>
+        <v>1.552592108161903</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.912778623051426</v>
@@ -19510,7 +19402,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.560829301414399</v>
+        <v>1.538984073069927</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.183810704327208</v>
@@ -19599,7 +19491,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.567985940693999</v>
+        <v>1.543483309263353</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.74054957121216</v>
@@ -19688,7 +19580,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571202486015249</v>
+        <v>1.541488063251283</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.966109530572442</v>
@@ -19777,7 +19669,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.568462207741571</v>
+        <v>1.537688422688476</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.735888661479867</v>
@@ -19866,7 +19758,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.574464654495482</v>
+        <v>1.543501672320595</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.638874845359916</v>
@@ -19955,7 +19847,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.561236332746252</v>
+        <v>1.536067084819071</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.944878340707228</v>
@@ -20044,7 +19936,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.556412606678393</v>
+        <v>1.535608149244608</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.833846439730462</v>
@@ -20133,7 +20025,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5765583488732</v>
+        <v>1.559456863236108</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.886328256300493</v>
@@ -20222,7 +20114,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.564302729187383</v>
+        <v>1.545486189333394</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.709865134774628</v>
@@ -20311,7 +20203,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.564492594134534</v>
+        <v>1.537708904924748</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.90945602690404</v>
@@ -20400,7 +20292,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565214602644057</v>
+        <v>1.539813235922238</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.745236786153213</v>
@@ -20489,7 +20381,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.563599401206137</v>
+        <v>1.540503425016069</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.993088379517675</v>
@@ -20578,7 +20470,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.563805857940628</v>
+        <v>1.542044596484459</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.724530732914364</v>
@@ -20667,7 +20559,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.577575921010138</v>
+        <v>1.54854650725749</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.791604834058582</v>
@@ -20756,7 +20648,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.579588678996386</v>
+        <v>1.553175405655561</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.784262739777287</v>
@@ -20845,7 +20737,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.601888796786019</v>
+        <v>1.575348147377815</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.728157198318902</v>
@@ -20934,7 +20826,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.603703689082686</v>
+        <v>1.571568330885339</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.852816678380893</v>
@@ -21023,7 +20915,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.60363182772891</v>
+        <v>1.568634496879216</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.885144004842158</v>
@@ -21112,7 +21004,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618469300776118</v>
+        <v>1.583946107238988</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.811529366515723</v>
@@ -21201,7 +21093,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.605543670161086</v>
+        <v>1.570053071200734</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.804692548429861</v>
@@ -21290,7 +21182,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.619775002490334</v>
+        <v>1.581111200479653</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.894654067953435</v>
@@ -21379,7 +21271,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.621533206935603</v>
+        <v>1.582679442107788</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.722834854006412</v>
@@ -21468,7 +21360,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.609146946830142</v>
+        <v>1.565973663285145</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.690174373357037</v>
@@ -21557,7 +21449,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.622730482800686</v>
+        <v>1.577190969794264</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.642102182386431</v>
@@ -21646,7 +21538,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.60431124733605</v>
+        <v>1.564774507279664</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.917596002632448</v>
@@ -21735,7 +21627,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610794599453832</v>
+        <v>1.56982390962636</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.675278201330717</v>
@@ -21824,7 +21716,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.620458710799222</v>
+        <v>1.5806206814781</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.722699930927747</v>
@@ -21913,7 +21805,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.611814572438057</v>
+        <v>1.570022110561158</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.722545996766549</v>
@@ -22002,7 +21894,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.607954402255276</v>
+        <v>1.567471369081977</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.463873203161302</v>
@@ -22091,7 +21983,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597612585961927</v>
+        <v>1.55925437318941</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.784152828157367</v>
@@ -22180,7 +22072,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.595370472413822</v>
+        <v>1.559332512474302</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.58305640366653</v>
@@ -22269,7 +22161,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589579422695644</v>
+        <v>1.558056325373169</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.851987172899739</v>
@@ -22358,7 +22250,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.577276922882177</v>
+        <v>1.55092072910322</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.872116843259211</v>
@@ -22447,7 +22339,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.563159678771293</v>
+        <v>1.539232710932032</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.525241089491902</v>
@@ -22536,7 +22428,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588677382426289</v>
+        <v>1.560021326284952</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.11311614654419</v>
@@ -22625,7 +22517,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591453941517719</v>
+        <v>1.553293324231704</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.996687201402688</v>
@@ -22714,7 +22606,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58796635976879</v>
+        <v>1.551927036362508</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.075661803482665</v>
@@ -22803,7 +22695,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.578876237736429</v>
+        <v>1.545545237209823</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.191611704309235</v>
@@ -22892,7 +22784,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580866513609331</v>
+        <v>1.548752731267905</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.912648272350298</v>
@@ -22981,7 +22873,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.6082384201317</v>
+        <v>1.568234543571863</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.174666930201304</v>
@@ -23070,7 +22962,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.610812981422499</v>
+        <v>1.568966223058393</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.028723284295804</v>
@@ -23159,7 +23051,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.608310998466523</v>
+        <v>1.561594484270877</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.072351645652387</v>
@@ -23248,7 +23140,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.61864330389786</v>
+        <v>1.568453166927942</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.022468144150766</v>
@@ -23337,7 +23229,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.599572407497161</v>
+        <v>1.556814120593412</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.04935944720638</v>
@@ -23426,7 +23318,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.595183362608798</v>
+        <v>1.553630972185729</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.115669875311568</v>
@@ -23515,7 +23407,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.575186050727279</v>
+        <v>1.531114403905732</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.629827229078007</v>
@@ -23604,7 +23496,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.515790249000869</v>
+        <v>1.483633277251455</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.127029191143039</v>
@@ -23693,7 +23585,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.520922341038342</v>
+        <v>1.485392575312096</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.117734198457589</v>
@@ -23782,7 +23674,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.52161165981823</v>
+        <v>1.4867404906055</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.096911386302778</v>
@@ -23871,7 +23763,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.532589414662529</v>
+        <v>1.499825245097185</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.147197325106148</v>
@@ -23960,7 +23852,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.527415710897513</v>
+        <v>1.498557933821769</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.173704773635735</v>
@@ -24246,7 +24138,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.663337535182656</v>
+        <v>1.639175561863894</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.766299263582134</v>
@@ -24335,7 +24227,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.663271373105234</v>
+        <v>1.637509566853932</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.85195365369249</v>
@@ -24424,7 +24316,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.663691185587366</v>
+        <v>1.633120782955013</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.487409214503021</v>
@@ -24513,7 +24405,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.6819762634074</v>
+        <v>1.647125480139422</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.627975955444526</v>
@@ -24602,7 +24494,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.645678413159882</v>
+        <v>1.624709996531899</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.633710916661518</v>
@@ -24691,7 +24583,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.643511580165506</v>
+        <v>1.62070758192329</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.813020304827734</v>
@@ -24780,7 +24672,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.660293809273475</v>
+        <v>1.634958363505124</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.993748696214964</v>
@@ -24869,7 +24761,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.656516419104926</v>
+        <v>1.632059335518194</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.944419724301994</v>
@@ -24958,7 +24850,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.664115999262687</v>
+        <v>1.640004725496873</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.046036764881975</v>
@@ -25047,7 +24939,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.649495062270548</v>
+        <v>1.626249904657745</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.05529325117076</v>
@@ -25136,7 +25028,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.646428725411656</v>
+        <v>1.618297837553295</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.874952216665127</v>
@@ -25225,7 +25117,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.647294523015417</v>
+        <v>1.616578867327873</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.154941126161595</v>
@@ -25314,7 +25206,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.659234750086293</v>
+        <v>1.628831713019371</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.104092318709914</v>
@@ -25403,7 +25295,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.655182602259347</v>
+        <v>1.625627036105328</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.134444846216536</v>
@@ -25492,7 +25384,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.641869510414904</v>
+        <v>1.611409612626649</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.129143475558545</v>
@@ -25581,7 +25473,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.643650202823028</v>
+        <v>1.617587129168201</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.919324878896258</v>
@@ -25670,7 +25562,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.646158864723349</v>
+        <v>1.621728943499189</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.052350467159776</v>
@@ -25759,7 +25651,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.65763230478076</v>
+        <v>1.629033984916478</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.814054859794827</v>
@@ -25848,7 +25740,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.655796859883281</v>
+        <v>1.625790339758167</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.557520443266617</v>
@@ -25937,7 +25829,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.672318010828335</v>
+        <v>1.636151015662878</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.45925946087683</v>
@@ -26026,7 +25918,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.654122131822551</v>
+        <v>1.621898561519985</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.135131983199198</v>
@@ -26115,7 +26007,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.654023645351963</v>
+        <v>1.618309361630724</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.442488657805083</v>
@@ -26204,7 +26096,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.65916942089878</v>
+        <v>1.623160023900086</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.866490729947331</v>
@@ -26293,7 +26185,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.667544298860381</v>
+        <v>1.62524106777731</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.7525378913874</v>
@@ -26382,7 +26274,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.680585334511641</v>
+        <v>1.633526234295695</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.805355323872106</v>
@@ -26471,7 +26363,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.678460238827512</v>
+        <v>1.635972036480615</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.799552054024926</v>
@@ -26560,7 +26452,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.684603910518684</v>
+        <v>1.642589819109384</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.870193066204068</v>
@@ -26649,7 +26541,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.669232241478727</v>
+        <v>1.627262469011759</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.706690494621319</v>
@@ -26738,7 +26630,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.668951731302963</v>
+        <v>1.632176723484324</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.658098683792246</v>
@@ -26827,7 +26719,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.662360039515236</v>
+        <v>1.625463467638769</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.656531732082208</v>
@@ -26916,7 +26808,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.661015630870784</v>
+        <v>1.626437783106457</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.870528935585505</v>
@@ -27005,7 +26897,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.660377076935668</v>
+        <v>1.623974320574405</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.900020201594815</v>
@@ -27094,7 +26986,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.658202582043423</v>
+        <v>1.627486148702292</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.888172040444345</v>
@@ -27183,7 +27075,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.65314910738078</v>
+        <v>1.618391914006906</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.878912602928068</v>
@@ -27272,7 +27164,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.656404630578541</v>
+        <v>1.619553336917618</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.695241117069791</v>
@@ -27361,7 +27253,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.67634353288808</v>
+        <v>1.637850883899497</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.637940203426145</v>
@@ -27450,7 +27342,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.669433342497488</v>
+        <v>1.638843862005867</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.664521270459232</v>
@@ -27539,7 +27431,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.657848617955282</v>
+        <v>1.631067898406229</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.981898440914759</v>
@@ -27628,7 +27520,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.641737991159208</v>
+        <v>1.6135862667776</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.866906220498448</v>
@@ -27717,7 +27609,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.629360805022667</v>
+        <v>1.61223201083214</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.867166418875617</v>
@@ -27806,7 +27698,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633306700717603</v>
+        <v>1.617737168836808</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.866255839459475</v>
@@ -27895,7 +27787,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.632561158722098</v>
+        <v>1.615881350201026</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.714642649402515</v>
@@ -27984,7 +27876,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.645426356966464</v>
+        <v>1.629369483405553</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.687197532546627</v>
@@ -28073,7 +27965,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.643020086297265</v>
+        <v>1.625217791378374</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.682870681140147</v>
@@ -28162,7 +28054,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.665833040545115</v>
+        <v>1.641093264766442</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.368987095382579</v>
@@ -28251,7 +28143,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.667269231737759</v>
+        <v>1.641283411672031</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.946566920424182</v>
@@ -28340,7 +28232,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.664637149525266</v>
+        <v>1.639430240826043</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.036898119834135</v>
@@ -28429,7 +28321,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.662012574310997</v>
+        <v>1.633711853260032</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.153639244483655</v>
@@ -28518,7 +28410,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.664354863010216</v>
+        <v>1.637474827454093</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.172710319640225</v>
@@ -28607,7 +28499,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.674721129428608</v>
+        <v>1.650711817997508</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.066617885542577</v>
@@ -28696,7 +28588,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.67508346549397</v>
+        <v>1.650117618536459</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.032925483297052</v>
@@ -28785,7 +28677,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.668604170552904</v>
+        <v>1.639843515417801</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.149587113823251</v>
@@ -28874,7 +28766,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.670279368992598</v>
+        <v>1.635717810221528</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.907215624430842</v>
@@ -28963,7 +28855,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.682833098921971</v>
+        <v>1.653063070599464</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.159166696552925</v>
@@ -29052,7 +28944,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.687109791668592</v>
+        <v>1.661400764387722</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.655344425459412</v>
@@ -29141,7 +29033,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.676327309121318</v>
+        <v>1.649156334769325</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.848833890362032</v>
@@ -29230,7 +29122,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.578920419071046</v>
+        <v>1.564632868692521</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.217231904639501</v>
@@ -29319,7 +29211,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.561382252637022</v>
+        <v>1.546462331620813</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.224021248515025</v>
@@ -29408,7 +29300,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.568421898316703</v>
+        <v>1.550690035229474</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.201327957207254</v>
@@ -29497,7 +29389,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.567190833049529</v>
+        <v>1.554331885458855</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.258079738434721</v>
@@ -29586,7 +29478,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.563596768135359</v>
+        <v>1.550741256664386</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.262580942965996</v>
@@ -29872,7 +29764,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.666218686167573</v>
+        <v>1.685911301159323</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.036992026292335</v>
@@ -29961,7 +29853,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.690033396441148</v>
+        <v>1.702989282928195</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.061114582299775</v>
@@ -30050,7 +29942,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.693451347026941</v>
+        <v>1.700532508288624</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.004446698316108</v>
@@ -30139,7 +30031,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.693800599624814</v>
+        <v>1.69932705343519</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.685529075960964</v>
@@ -30228,7 +30120,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.696861982011712</v>
+        <v>1.697239995702271</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.873895465195317</v>
@@ -30317,7 +30209,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.697465372076954</v>
+        <v>1.690286340085071</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.064779821971202</v>
@@ -30406,7 +30298,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.700549768752518</v>
+        <v>1.687316950364181</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.043965641778563</v>
@@ -30495,7 +30387,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.701752817092762</v>
+        <v>1.694199920618043</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.472091174367367</v>
@@ -30584,7 +30476,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.708076517114863</v>
+        <v>1.699664121590869</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.518610270562621</v>
@@ -30673,7 +30565,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.709278543771133</v>
+        <v>1.701145833351957</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.378466565882494</v>
@@ -30762,7 +30654,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.6718800894857</v>
+        <v>1.6652781717339</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.95098953087385</v>
@@ -30851,7 +30743,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.675631259301353</v>
+        <v>1.668105122975009</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.855696779745764</v>
@@ -30940,7 +30832,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.669172932045144</v>
+        <v>1.658306435044247</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.786100630936798</v>
@@ -31029,7 +30921,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.663315263676405</v>
+        <v>1.658175193688341</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.924144717122231</v>
@@ -31118,7 +31010,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670902672853271</v>
+        <v>1.664309081321138</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.767788524130008</v>
@@ -31207,7 +31099,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.679716994055502</v>
+        <v>1.668174599125983</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.168676822490808</v>
@@ -31296,7 +31188,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.680504261889044</v>
+        <v>1.668128932747274</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.23168079367059</v>
@@ -31385,7 +31277,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.671455560112429</v>
+        <v>1.66380020886191</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.056369769378774</v>
@@ -31474,7 +31366,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.664710426348546</v>
+        <v>1.654964673723852</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.207139275568276</v>
@@ -31563,7 +31455,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.666880908395573</v>
+        <v>1.659189142436783</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.111432552665125</v>
@@ -31652,7 +31544,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.66117851896646</v>
+        <v>1.654414905889556</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.316263084225995</v>
@@ -31741,7 +31633,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.661337211233517</v>
+        <v>1.655229451763594</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.244742344860792</v>
@@ -31830,7 +31722,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.677348643704599</v>
+        <v>1.664870730047641</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.449242351507996</v>
@@ -31919,7 +31811,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.679673542293344</v>
+        <v>1.665980861807731</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.46395420856625</v>
@@ -32008,7 +31900,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.675684741286024</v>
+        <v>1.662449796311966</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.407507422427312</v>
@@ -32097,7 +31989,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.700602139809797</v>
+        <v>1.688859062664223</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.374652419130634</v>
@@ -32186,7 +32078,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.695369029949477</v>
+        <v>1.684771831139659</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.390860744389871</v>
@@ -32275,7 +32167,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.703283905288636</v>
+        <v>1.694176298602379</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.448470672579727</v>
@@ -32364,7 +32256,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.705610609126082</v>
+        <v>1.693973212771869</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.458219350630607</v>
@@ -32453,7 +32345,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.695152881372373</v>
+        <v>1.678203452458275</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.374396107707269</v>
@@ -32542,7 +32434,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.688880789207109</v>
+        <v>1.673494385344297</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.440182079718159</v>
@@ -32631,7 +32523,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684851503187836</v>
+        <v>1.668391410379573</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.404743020421116</v>
@@ -32720,7 +32612,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.657225772128544</v>
+        <v>1.650322466810027</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.338857644978358</v>
@@ -32809,7 +32701,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.66621054945621</v>
+        <v>1.656705603047793</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.353089443747736</v>
@@ -32898,7 +32790,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.658401663124398</v>
+        <v>1.649254927820689</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.354684239961192</v>
@@ -32987,7 +32879,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.662958495074979</v>
+        <v>1.648918217551716</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.288789253875041</v>
@@ -33076,7 +32968,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.658955040086455</v>
+        <v>1.646199280922909</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.288180609632237</v>
@@ -33165,7 +33057,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.645145317845185</v>
+        <v>1.634234524593041</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.136699815076777</v>
@@ -33254,7 +33146,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.650209644833121</v>
+        <v>1.639420628542723</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.964615550455771</v>
@@ -33343,7 +33235,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.653430345497434</v>
+        <v>1.63663247102324</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.920167947761481</v>
@@ -33432,7 +33324,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639188405424868</v>
+        <v>1.630902785043834</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.780021047745181</v>
@@ -33521,7 +33413,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631368511358261</v>
+        <v>1.624877320448878</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.035236357787388</v>
@@ -33610,7 +33502,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.625841872024833</v>
+        <v>1.619091237961365</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.012316872241786</v>
@@ -33699,7 +33591,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.630146258863298</v>
+        <v>1.62242754749256</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.094790579007829</v>
@@ -33788,7 +33680,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.628461090929021</v>
+        <v>1.625508161091988</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.147051328267129</v>
@@ -33877,7 +33769,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.62845160176369</v>
+        <v>1.625112066731996</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.772768705326183</v>
@@ -33966,7 +33858,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.648706332362161</v>
+        <v>1.636613874624818</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.778098034987448</v>
@@ -34055,7 +33947,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.656903299991432</v>
+        <v>1.640208194634001</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.033586545423475</v>
@@ -34144,7 +34036,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.655224737820438</v>
+        <v>1.639132829766584</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.130485872959599</v>
@@ -34233,7 +34125,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.658834572962537</v>
+        <v>1.641962785889318</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.057272349551583</v>
@@ -34322,7 +34214,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.659689395458454</v>
+        <v>1.64314672099943</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.771391001817815</v>
@@ -34411,7 +34303,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.654804178618674</v>
+        <v>1.640461457103377</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.117749859181546</v>
@@ -34500,7 +34392,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.654854778469084</v>
+        <v>1.639372410947373</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.981707197688338</v>
@@ -34589,7 +34481,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.643448836816952</v>
+        <v>1.62699327242139</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.078497847508288</v>
@@ -34678,7 +34570,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.629675812035304</v>
+        <v>1.615257257818406</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.304905920166894</v>
@@ -34767,7 +34659,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.646911059647858</v>
+        <v>1.633483613416085</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.824367330444487</v>
@@ -34856,7 +34748,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.603597541199068</v>
+        <v>1.581549518712193</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.162906894875138</v>
@@ -34945,7 +34837,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.593765218127581</v>
+        <v>1.573556546286395</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.11921209535441</v>
@@ -35034,7 +34926,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.606089200874182</v>
+        <v>1.588336026062244</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.153082519772509</v>
@@ -35123,7 +35015,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.618214021850143</v>
+        <v>1.596044874213201</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.163522649096187</v>
@@ -35212,7 +35104,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.567243668940387</v>
+        <v>1.556197479410227</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.163582228813935</v>
@@ -35498,7 +35390,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.440098189815068</v>
+        <v>1.437022451860209</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.083652348356298</v>
@@ -35587,7 +35479,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.521893419964093</v>
+        <v>1.506087355198959</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.067614802987405</v>
@@ -35676,7 +35568,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.520146897022401</v>
+        <v>1.507233292768117</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.226452196943391</v>
@@ -35765,7 +35657,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.504812471990153</v>
+        <v>1.486310973211666</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.120641318541288</v>
@@ -35854,7 +35746,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.488095164939672</v>
+        <v>1.480054287549682</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.098508020557647</v>
@@ -35943,7 +35835,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.508573122545985</v>
+        <v>1.507805773798912</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.192835024506322</v>
@@ -36032,7 +35924,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.494487544529435</v>
+        <v>1.495699446022292</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.257297273347215</v>
@@ -36121,7 +36013,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.494903277713631</v>
+        <v>1.497947323757434</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.210703478275993</v>
@@ -36210,7 +36102,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.496962594773932</v>
+        <v>1.502106471230683</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.243719684177471</v>
@@ -36299,7 +36191,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.497031754384172</v>
+        <v>1.501125315301834</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.244934846463407</v>
@@ -36388,7 +36280,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.464967393602621</v>
+        <v>1.471572154800464</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.200649303459368</v>
@@ -36477,7 +36369,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.492895693496345</v>
+        <v>1.500605743457995</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.151509144815973</v>
@@ -36566,7 +36458,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.497393528051821</v>
+        <v>1.504434511636942</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.254611179213784</v>
@@ -36655,7 +36547,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.501970887946621</v>
+        <v>1.508324412455246</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.313615933050074</v>
@@ -36744,7 +36636,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.52282614450365</v>
+        <v>1.521798727988186</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.054446037571345</v>
@@ -36833,7 +36725,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.524129302414107</v>
+        <v>1.527086904211504</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.199170925624541</v>
@@ -36922,7 +36814,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.518657625948859</v>
+        <v>1.524882947626621</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.268734260354194</v>
@@ -37011,7 +36903,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544754100054075</v>
+        <v>1.548497888000427</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.43322724748254</v>
@@ -37100,7 +36992,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.590716647239338</v>
+        <v>1.592299762897613</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.034635196807334</v>
@@ -37189,7 +37081,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.593642146375464</v>
+        <v>1.592737793808217</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.215075185509173</v>
@@ -37278,7 +37170,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.5985670127488</v>
+        <v>1.59253347954704</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.186438523340277</v>
@@ -37367,7 +37259,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.628060710326317</v>
+        <v>1.614315682891119</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.147947416177118</v>
@@ -37456,7 +37348,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.627259726128557</v>
+        <v>1.614566309516065</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.161084757978064</v>
@@ -37545,7 +37437,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.629291849978558</v>
+        <v>1.606110573542511</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.15005352689477</v>
@@ -37634,7 +37526,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.586889014051478</v>
+        <v>1.572039762382108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.263804155638133</v>
@@ -37723,7 +37615,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.649048080356374</v>
+        <v>1.626716805020359</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.386632613872042</v>
@@ -37812,7 +37704,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.650318367804359</v>
+        <v>1.628300943040267</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.286951367067528</v>
@@ -37901,7 +37793,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.646185503056065</v>
+        <v>1.621525931969679</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.242186031671638</v>
@@ -37990,7 +37882,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.647447945623256</v>
+        <v>1.627520738313577</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.241290924330779</v>
@@ -38079,7 +37971,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.622468040188643</v>
+        <v>1.604468710041962</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.42859716520449</v>
@@ -38168,7 +38060,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.638082184233697</v>
+        <v>1.617292564122941</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.347111027538114</v>
@@ -38257,7 +38149,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.644942842860423</v>
+        <v>1.616768113730496</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.266141859304633</v>
@@ -38346,7 +38238,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.642469138863513</v>
+        <v>1.615730728163778</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.36048906393478</v>
@@ -38435,7 +38327,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.648298929568262</v>
+        <v>1.62224355113553</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.307122892038151</v>
@@ -38524,7 +38416,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618851019620655</v>
+        <v>1.599847867779164</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.323172221047928</v>
@@ -38613,7 +38505,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.615513875976477</v>
+        <v>1.597145852061824</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.288833067253456</v>
@@ -38702,7 +38594,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618363746183882</v>
+        <v>1.604366787394877</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.293667260336604</v>
@@ -38791,7 +38683,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.619133352271273</v>
+        <v>1.602038695546234</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.295454880689417</v>
@@ -38880,7 +38772,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.653258762031347</v>
+        <v>1.632332674907166</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.185776707336639</v>
@@ -38969,7 +38861,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.666730956575639</v>
+        <v>1.643296209106399</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.619901248032157</v>
@@ -39058,7 +38950,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.657904044462784</v>
+        <v>1.638166311054005</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.28826866971124</v>
@@ -39147,7 +39039,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631431477768948</v>
+        <v>1.616053989178765</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.48451451194763</v>
@@ -39236,7 +39128,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.634274262837911</v>
+        <v>1.622551102113185</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.392537852743071</v>
@@ -39325,7 +39217,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.636688494847689</v>
+        <v>1.62496220229015</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.516839004164132</v>
@@ -39414,7 +39306,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.679395419630285</v>
+        <v>1.667819409261172</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.498814694822606</v>
@@ -39503,7 +39395,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.675323415492749</v>
+        <v>1.667675805558836</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.338775345718409</v>
@@ -39592,7 +39484,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.684640175046554</v>
+        <v>1.673553951694848</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.28012507515626</v>
@@ -39681,7 +39573,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.689959215862707</v>
+        <v>1.679443979843165</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.420301561766113</v>
@@ -39770,7 +39662,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.69608832687031</v>
+        <v>1.678073996312655</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.39963754447862</v>
@@ -39859,7 +39751,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.740875839831229</v>
+        <v>1.718377253121784</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.417613550349993</v>
@@ -39948,7 +39840,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.741623750364565</v>
+        <v>1.719330198314967</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.207490816350155</v>
@@ -40037,7 +39929,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.732651861168773</v>
+        <v>1.708695084841907</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.514847289983487</v>
@@ -40126,7 +40018,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.735489489793068</v>
+        <v>1.704437024005311</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.384279080404327</v>
@@ -40215,7 +40107,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.680908732754183</v>
+        <v>1.662170987076195</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.27436101288994</v>
@@ -40304,7 +40196,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.610895410535556</v>
+        <v>1.607273507172079</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.102409846006273</v>
@@ -40393,7 +40285,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.610103428414989</v>
+        <v>1.590616795194601</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.178468959028299</v>
@@ -40482,7 +40374,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.532056901018961</v>
+        <v>1.534901168012792</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.987199179224676</v>
@@ -40571,7 +40463,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.526800832618995</v>
+        <v>1.527494378212382</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.042581213934202</v>
@@ -40660,7 +40552,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.513275870943301</v>
+        <v>1.515452988707745</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.020208684077685</v>
@@ -40749,7 +40641,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.505030133107342</v>
+        <v>1.509939540707008</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.022374141910147</v>
@@ -40838,7 +40730,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.460762564217185</v>
+        <v>1.459089616938489</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.06469131615524</v>
